--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,62 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>foresatt_pnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -648,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +721,19 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>barn_pnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -679,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +818,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,55 +468,159 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>tore</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>jan</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Joey</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Per</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>anne</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>heihå gate 3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86666666</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12354789479</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>edvard</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>heihå gate 3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93333333</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12345678901</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,12 +833,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
+          <t>98765432198</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9876543211</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>98776543321</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,16 +964,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -842,17 +983,130 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>yallah</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>12432534634</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1500000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>2024-11-06</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
+      <c r="M5" t="n">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,158 +468,38 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>tore</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>jan</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Joey</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Per</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>anne</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>heihå gate 3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86666666</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12354789479</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>edvard</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>heihå gate 3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93333333</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12345678901</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -808,7 +688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,48 +713,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>98765432198</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9876543211</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>98776543321</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -889,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -983,129 +824,14 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>yallah</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>12432534634</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1500000</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
           <t>2024-11-06</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M2" t="n">
         <v>1111</v>
       </c>
     </row>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="foresatt" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,10 +19,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -40,12 +47,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -58,14 +80,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -428,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,70 +462,222 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>foresatt_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>foresatt_navn</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>foresatt_adresse</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>foresatt_tlfnr</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>foresatt_pnr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Kooossstttt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rosenli 15</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>41367374</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22222222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sivi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Rosenli 15</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>41367374</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Silje</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rosenli 15</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>41367374</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22222222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jonas</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rosenli 15</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>41367374</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Silje</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rosenli 15</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>41367374</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22222222222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Jonas</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rosenli 15</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>41367374</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Silje</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rosenli 15</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>41367374</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22222222222</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Jonas</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rosenli 15</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>41367374</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11111111111</v>
       </c>
     </row>
   </sheetData>
@@ -523,29 +700,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>barnehage_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>barnehage_navn</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>barnehage_antall_plasser</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>barnehage_ledige_plasser</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -564,7 +741,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -583,7 +760,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -602,7 +779,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -621,7 +798,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -640,7 +817,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -659,7 +836,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -688,7 +865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,26 +874,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>barn_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>barn_pnr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12345678901</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,100 +949,400 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>sok_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>foresatt_1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>foresatt_2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>barn_1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>fr_barnevern</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>fr_sykd_familie</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>fr_sykd_barn</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>fr_annet</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>barnehager_prioritert</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>sosken__i_barnehagen</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>tidspunkt_oppstart</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>brutto_inntekt</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>sadwadwada</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1234567</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1234567</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2024-11-06</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>1111</v>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
